--- a/dmsan/bwaise/results/scenario/optimal_frontier.xlsx
+++ b/dmsan/bwaise/results/scenario/optimal_frontier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,9 +449,6 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -460,22 +457,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02</v>
+        <v>0.051</v>
       </c>
       <c r="C2" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.289</v>
+        <v>0.376</v>
       </c>
       <c r="E2" t="n">
-        <v>0.648</v>
+        <v>0.74</v>
       </c>
       <c r="F2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.989</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="3">
@@ -485,21 +479,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004</v>
+        <v>0.048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.099</v>
+        <v>0.143</v>
       </c>
       <c r="D3" t="n">
-        <v>0.277</v>
+        <v>0.361</v>
       </c>
       <c r="E3" t="n">
-        <v>0.635</v>
+        <v>0.731</v>
       </c>
       <c r="F3" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="G3" t="n">
         <v>0.989</v>
       </c>
     </row>
@@ -510,22 +501,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="C4" t="n">
-        <v>0.089</v>
+        <v>0.142</v>
       </c>
       <c r="D4" t="n">
-        <v>0.227</v>
+        <v>0.366</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.732</v>
       </c>
       <c r="F4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5">
@@ -535,22 +523,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="C5" t="n">
-        <v>0.089</v>
+        <v>0.144</v>
       </c>
       <c r="D5" t="n">
-        <v>0.235</v>
+        <v>0.369</v>
       </c>
       <c r="E5" t="n">
-        <v>0.58</v>
+        <v>0.734</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9389999999999999</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.989</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="6">
@@ -560,22 +545,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.018</v>
+        <v>0.052</v>
       </c>
       <c r="C6" t="n">
-        <v>0.108</v>
+        <v>0.15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.292</v>
+        <v>0.377</v>
       </c>
       <c r="E6" t="n">
-        <v>0.652</v>
+        <v>0.74</v>
       </c>
       <c r="F6" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.989</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="7">
@@ -585,22 +567,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.089</v>
+        <v>0.142</v>
       </c>
       <c r="D7" t="n">
-        <v>0.227</v>
+        <v>0.366</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.732</v>
       </c>
       <c r="F7" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="8">
@@ -610,22 +589,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.048</v>
+        <v>0.067</v>
       </c>
       <c r="C8" t="n">
-        <v>0.143</v>
+        <v>0.163</v>
       </c>
       <c r="D8" t="n">
-        <v>0.341</v>
+        <v>0.381</v>
       </c>
       <c r="E8" t="n">
-        <v>0.71</v>
+        <v>0.744</v>
       </c>
       <c r="F8" t="n">
-        <v>0.988</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.991</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="9">
@@ -635,21 +611,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.052</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.148</v>
+        <v>0.17</v>
       </c>
       <c r="D9" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="E9" t="n">
-        <v>0.718</v>
+        <v>0.755</v>
       </c>
       <c r="F9" t="n">
-        <v>0.989</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>0.993</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -658,21 +633,18 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.048</v>
+        <v>0.1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.151</v>
+        <v>0.211</v>
       </c>
       <c r="D10" t="n">
-        <v>0.405</v>
+        <v>0.548</v>
       </c>
       <c r="E10" t="n">
-        <v>0.901</v>
+        <v>0.985</v>
       </c>
       <c r="F10" t="n">
-        <v>0.929</v>
-      </c>
-      <c r="G10" t="n">
         <v>0.993</v>
       </c>
     </row>
@@ -683,21 +655,18 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="C11" t="n">
-        <v>0.089</v>
+        <v>0.144</v>
       </c>
       <c r="D11" t="n">
-        <v>0.233</v>
+        <v>0.377</v>
       </c>
       <c r="E11" t="n">
-        <v>0.584</v>
+        <v>0.751</v>
       </c>
       <c r="F11" t="n">
-        <v>0.922</v>
-      </c>
-      <c r="G11" t="n">
         <v>0.991</v>
       </c>
     </row>
@@ -708,21 +677,18 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="C12" t="n">
-        <v>0.089</v>
+        <v>0.144</v>
       </c>
       <c r="D12" t="n">
-        <v>0.234</v>
+        <v>0.377</v>
       </c>
       <c r="E12" t="n">
-        <v>0.586</v>
+        <v>0.751</v>
       </c>
       <c r="F12" t="n">
-        <v>0.922</v>
-      </c>
-      <c r="G12" t="n">
         <v>0.991</v>
       </c>
     </row>
@@ -733,22 +699,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="C13" t="n">
-        <v>0.089</v>
+        <v>0.142</v>
       </c>
       <c r="D13" t="n">
-        <v>0.227</v>
+        <v>0.368</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.734</v>
       </c>
       <c r="F13" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.989</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="14">
@@ -758,19 +721,18 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.076</v>
+        <v>0.127</v>
       </c>
       <c r="C14" t="n">
-        <v>0.179</v>
+        <v>0.233</v>
       </c>
       <c r="D14" t="n">
-        <v>0.452</v>
+        <v>0.583</v>
       </c>
       <c r="E14" t="n">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -779,21 +741,18 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="C15" t="n">
-        <v>0.089</v>
+        <v>0.144</v>
       </c>
       <c r="D15" t="n">
-        <v>0.232</v>
+        <v>0.373</v>
       </c>
       <c r="E15" t="n">
-        <v>0.578</v>
+        <v>0.745</v>
       </c>
       <c r="F15" t="n">
-        <v>0.922</v>
-      </c>
-      <c r="G15" t="n">
         <v>0.991</v>
       </c>
     </row>
@@ -804,22 +763,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="C16" t="n">
-        <v>0.089</v>
+        <v>0.142</v>
       </c>
       <c r="D16" t="n">
-        <v>0.227</v>
+        <v>0.366</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.732</v>
       </c>
       <c r="F16" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="17">
@@ -829,22 +785,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="C17" t="n">
-        <v>0.089</v>
+        <v>0.142</v>
       </c>
       <c r="D17" t="n">
-        <v>0.227</v>
+        <v>0.366</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.732</v>
       </c>
       <c r="F17" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="18">
@@ -854,15 +807,14 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C18" t="n">
-        <v>0.227</v>
+        <v>0.366</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -871,13 +823,12 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.09</v>
+        <v>0.144</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -886,22 +837,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="C20" t="n">
-        <v>0.089</v>
+        <v>0.142</v>
       </c>
       <c r="D20" t="n">
-        <v>0.227</v>
+        <v>0.366</v>
       </c>
       <c r="E20" t="n">
-        <v>0.57</v>
+        <v>0.737</v>
       </c>
       <c r="F20" t="n">
-        <v>0.922</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.992</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="21">
@@ -911,17 +859,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.045</v>
+        <v>0.107</v>
       </c>
       <c r="C21" t="n">
-        <v>0.161</v>
+        <v>0.228</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.732</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -930,22 +877,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="C22" t="n">
-        <v>0.089</v>
+        <v>0.142</v>
       </c>
       <c r="D22" t="n">
-        <v>0.227</v>
+        <v>0.366</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.732</v>
       </c>
       <c r="F22" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="23">
@@ -955,21 +899,18 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="C23" t="n">
-        <v>0.093</v>
+        <v>0.151</v>
       </c>
       <c r="D23" t="n">
-        <v>0.246</v>
+        <v>0.392</v>
       </c>
       <c r="E23" t="n">
-        <v>0.728</v>
+        <v>0.824</v>
       </c>
       <c r="F23" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="G23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -980,21 +921,18 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="C24" t="n">
-        <v>0.101</v>
+        <v>0.165</v>
       </c>
       <c r="D24" t="n">
-        <v>0.297</v>
+        <v>0.469</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.804</v>
       </c>
       <c r="F24" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="G24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1005,22 +943,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="D25" t="n">
-        <v>0.199</v>
+        <v>0.323</v>
       </c>
       <c r="E25" t="n">
-        <v>0.574</v>
+        <v>0.742</v>
       </c>
       <c r="F25" t="n">
-        <v>0.919</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.986</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="26">
@@ -1030,21 +965,18 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="C26" t="n">
-        <v>0.098</v>
+        <v>0.158</v>
       </c>
       <c r="D26" t="n">
-        <v>0.254</v>
+        <v>0.407</v>
       </c>
       <c r="E26" t="n">
-        <v>0.644</v>
+        <v>0.785</v>
       </c>
       <c r="F26" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G26" t="n">
         <v>1</v>
       </c>
     </row>

--- a/dmsan/bwaise/results/scenario/optimal_frontier.xlsx
+++ b/dmsan/bwaise/results/scenario/optimal_frontier.xlsx
@@ -457,19 +457,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.051</v>
+        <v>0.052</v>
       </c>
       <c r="C2" t="n">
-        <v>0.15</v>
+        <v>0.166</v>
       </c>
       <c r="D2" t="n">
-        <v>0.376</v>
+        <v>0.398</v>
       </c>
       <c r="E2" t="n">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="F2" t="n">
-        <v>0.991</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="3">
@@ -479,19 +479,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="C3" t="n">
-        <v>0.143</v>
+        <v>0.157</v>
       </c>
       <c r="D3" t="n">
-        <v>0.361</v>
+        <v>0.392</v>
       </c>
       <c r="E3" t="n">
-        <v>0.731</v>
+        <v>0.764</v>
       </c>
       <c r="F3" t="n">
-        <v>0.989</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="4">
@@ -501,19 +501,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="C4" t="n">
-        <v>0.142</v>
+        <v>0.157</v>
       </c>
       <c r="D4" t="n">
-        <v>0.366</v>
+        <v>0.397</v>
       </c>
       <c r="E4" t="n">
-        <v>0.732</v>
+        <v>0.767</v>
       </c>
       <c r="F4" t="n">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="5">
@@ -523,19 +523,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144</v>
+        <v>0.158</v>
       </c>
       <c r="D5" t="n">
-        <v>0.369</v>
+        <v>0.397</v>
       </c>
       <c r="E5" t="n">
-        <v>0.734</v>
+        <v>0.769</v>
       </c>
       <c r="F5" t="n">
-        <v>0.991</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15</v>
+        <v>0.166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.377</v>
+        <v>0.398</v>
       </c>
       <c r="E6" t="n">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="F6" t="n">
-        <v>0.991</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="7">
@@ -567,19 +567,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="C7" t="n">
-        <v>0.142</v>
+        <v>0.157</v>
       </c>
       <c r="D7" t="n">
-        <v>0.366</v>
+        <v>0.397</v>
       </c>
       <c r="E7" t="n">
-        <v>0.732</v>
+        <v>0.767</v>
       </c>
       <c r="F7" t="n">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="8">
@@ -592,13 +592,13 @@
         <v>0.067</v>
       </c>
       <c r="C8" t="n">
-        <v>0.163</v>
+        <v>0.176</v>
       </c>
       <c r="D8" t="n">
-        <v>0.381</v>
+        <v>0.411</v>
       </c>
       <c r="E8" t="n">
-        <v>0.744</v>
+        <v>0.78</v>
       </c>
       <c r="F8" t="n">
         <v>0.993</v>
@@ -611,16 +611,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="C9" t="n">
-        <v>0.17</v>
+        <v>0.181</v>
       </c>
       <c r="D9" t="n">
-        <v>0.39</v>
+        <v>0.419</v>
       </c>
       <c r="E9" t="n">
-        <v>0.755</v>
+        <v>0.786</v>
       </c>
       <c r="F9" t="n">
         <v>0.993</v>
@@ -633,19 +633,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211</v>
+        <v>0.227</v>
       </c>
       <c r="D10" t="n">
-        <v>0.548</v>
+        <v>0.579</v>
       </c>
       <c r="E10" t="n">
-        <v>0.985</v>
+        <v>0.988</v>
       </c>
       <c r="F10" t="n">
-        <v>0.993</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         <v>0.049</v>
       </c>
       <c r="C11" t="n">
-        <v>0.144</v>
+        <v>0.159</v>
       </c>
       <c r="D11" t="n">
-        <v>0.377</v>
+        <v>0.407</v>
       </c>
       <c r="E11" t="n">
-        <v>0.751</v>
+        <v>0.8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.991</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="12">
@@ -680,16 +680,16 @@
         <v>0.049</v>
       </c>
       <c r="C12" t="n">
-        <v>0.144</v>
+        <v>0.159</v>
       </c>
       <c r="D12" t="n">
-        <v>0.377</v>
+        <v>0.405</v>
       </c>
       <c r="E12" t="n">
-        <v>0.751</v>
+        <v>0.794</v>
       </c>
       <c r="F12" t="n">
-        <v>0.991</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="13">
@@ -699,19 +699,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="C13" t="n">
-        <v>0.142</v>
+        <v>0.157</v>
       </c>
       <c r="D13" t="n">
-        <v>0.368</v>
+        <v>0.398</v>
       </c>
       <c r="E13" t="n">
-        <v>0.734</v>
+        <v>0.769</v>
       </c>
       <c r="F13" t="n">
-        <v>0.991</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="14">
@@ -721,16 +721,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.127</v>
+        <v>0.132</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233</v>
+        <v>0.249</v>
       </c>
       <c r="D14" t="n">
-        <v>0.583</v>
+        <v>0.61</v>
       </c>
       <c r="E14" t="n">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -741,19 +741,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="C15" t="n">
-        <v>0.144</v>
+        <v>0.158</v>
       </c>
       <c r="D15" t="n">
-        <v>0.373</v>
+        <v>0.404</v>
       </c>
       <c r="E15" t="n">
-        <v>0.745</v>
+        <v>0.785</v>
       </c>
       <c r="F15" t="n">
-        <v>0.991</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="16">
@@ -763,19 +763,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="C16" t="n">
-        <v>0.142</v>
+        <v>0.157</v>
       </c>
       <c r="D16" t="n">
-        <v>0.366</v>
+        <v>0.397</v>
       </c>
       <c r="E16" t="n">
-        <v>0.732</v>
+        <v>0.767</v>
       </c>
       <c r="F16" t="n">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="17">
@@ -785,19 +785,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="C17" t="n">
-        <v>0.142</v>
+        <v>0.159</v>
       </c>
       <c r="D17" t="n">
-        <v>0.366</v>
+        <v>0.403</v>
       </c>
       <c r="E17" t="n">
-        <v>0.732</v>
+        <v>0.77</v>
       </c>
       <c r="F17" t="n">
-        <v>0.99</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="18">
@@ -807,10 +807,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.13</v>
+        <v>0.135</v>
       </c>
       <c r="C18" t="n">
-        <v>0.366</v>
+        <v>0.397</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.144</v>
+        <v>0.158</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -837,19 +837,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="C20" t="n">
-        <v>0.142</v>
+        <v>0.157</v>
       </c>
       <c r="D20" t="n">
-        <v>0.366</v>
+        <v>0.398</v>
       </c>
       <c r="E20" t="n">
-        <v>0.737</v>
+        <v>0.772</v>
       </c>
       <c r="F20" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="21">
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.107</v>
+        <v>0.109</v>
       </c>
       <c r="C21" t="n">
-        <v>0.228</v>
+        <v>0.24</v>
       </c>
       <c r="D21" t="n">
-        <v>0.732</v>
+        <v>0.767</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -877,19 +877,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="C22" t="n">
-        <v>0.142</v>
+        <v>0.157</v>
       </c>
       <c r="D22" t="n">
-        <v>0.366</v>
+        <v>0.397</v>
       </c>
       <c r="E22" t="n">
-        <v>0.732</v>
+        <v>0.767</v>
       </c>
       <c r="F22" t="n">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="23">
@@ -902,13 +902,13 @@
         <v>0.052</v>
       </c>
       <c r="C23" t="n">
-        <v>0.151</v>
+        <v>0.168</v>
       </c>
       <c r="D23" t="n">
-        <v>0.392</v>
+        <v>0.426</v>
       </c>
       <c r="E23" t="n">
-        <v>0.824</v>
+        <v>0.848</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -921,16 +921,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="C24" t="n">
-        <v>0.165</v>
+        <v>0.181</v>
       </c>
       <c r="D24" t="n">
-        <v>0.469</v>
+        <v>0.516</v>
       </c>
       <c r="E24" t="n">
-        <v>0.804</v>
+        <v>0.837</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -946,16 +946,16 @@
         <v>0.048</v>
       </c>
       <c r="C25" t="n">
-        <v>0.14</v>
+        <v>0.148</v>
       </c>
       <c r="D25" t="n">
-        <v>0.323</v>
+        <v>0.351</v>
       </c>
       <c r="E25" t="n">
-        <v>0.742</v>
+        <v>0.78</v>
       </c>
       <c r="F25" t="n">
-        <v>0.988</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="26">
@@ -965,16 +965,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="C26" t="n">
-        <v>0.158</v>
+        <v>0.17</v>
       </c>
       <c r="D26" t="n">
-        <v>0.407</v>
+        <v>0.446</v>
       </c>
       <c r="E26" t="n">
-        <v>0.785</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
